--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:32:09+00:00</t>
+    <t>2023-02-28T14:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:52:43+00:00</t>
+    <t>2023-02-28T14:54:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T14:54:29+00:00</t>
+    <t>2023-03-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:03:16+00:00</t>
+    <t>2023-03-01T11:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:04:17+00:00</t>
+    <t>2023-03-01T11:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:23:11+00:00</t>
+    <t>2023-03-01T11:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T11:24:18+00:00</t>
+    <t>2023-03-01T12:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:12:05+00:00</t>
+    <t>2023-03-01T12:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:13:00+00:00</t>
+    <t>2023-03-01T12:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/ARVTreatment--FIG-58/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:21:15+00:00</t>
+    <t>2023-03-01T12:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
